--- a/initialData/Shablon.xlsx
+++ b/initialData/Shablon.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programms\С# Progs\DIPLOM\LockedPower\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programms\Diploma\BlockedPowerFULL\initialData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет невыпускаемой мощности" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="34">
   <si>
     <t>Потребление</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">Суммарный невыпускаемый резерв - </t>
+  </si>
+  <si>
+    <t>Текущий переток</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1397,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1422,6 +1425,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1430,13 +1438,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="362">
@@ -2079,10 +2085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:J186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,15 +2098,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2112,86 +2118,86 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="15"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2199,1033 +2205,1063 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="2" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="1" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="2" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="6" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="7" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="1" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="1" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="1" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="1" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-      <c r="B64" s="1" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="1" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
-      <c r="B66" s="1" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
-      <c r="B67" s="1" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="1" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="1" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="1" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-      <c r="B71" s="2" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="6" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="7" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
+    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="1" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="B78" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="1" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="1" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
+      <c r="B80" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="1" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
+      <c r="B81" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="1" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="14"/>
+      <c r="B82" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="1" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="14"/>
+      <c r="B83" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="1" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="14"/>
+      <c r="B84" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="1" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="14"/>
+      <c r="B85" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="1" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="14"/>
+      <c r="B86" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="1" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="14"/>
+      <c r="B87" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="1" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="14"/>
+      <c r="B88" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="2" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="14"/>
+      <c r="B89" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="1" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="15"/>
+      <c r="B91" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="1" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="15"/>
+      <c r="B92" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="1" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="15"/>
+      <c r="B93" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="B91" s="1" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="15"/>
+      <c r="B94" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-      <c r="B92" s="1" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="15"/>
+      <c r="B95" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-      <c r="B93" s="1" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="15"/>
+      <c r="B96" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
-      <c r="B94" s="1" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="15"/>
+      <c r="B97" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
-      <c r="B95" s="1" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="15"/>
+      <c r="B98" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
-      <c r="B96" s="1" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="15"/>
+      <c r="B99" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-      <c r="B97" s="1" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="15"/>
+      <c r="B100" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="12"/>
-      <c r="B98" s="1" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="15"/>
+      <c r="B101" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
-      <c r="B99" s="2" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="15"/>
+      <c r="B102" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="6" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="10"/>
+      <c r="B103" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="7" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+      <c r="B105" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
-      <c r="B103" s="1" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="14"/>
+      <c r="B107" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
-      <c r="B104" s="1" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="14"/>
+      <c r="B108" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
-      <c r="B105" s="1" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="14"/>
+      <c r="B109" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
-      <c r="B106" s="1" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="14"/>
+      <c r="B110" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
-      <c r="B107" s="1" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="14"/>
+      <c r="B111" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
-      <c r="B108" s="1" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="14"/>
+      <c r="B112" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
-      <c r="B109" s="1" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="14"/>
+      <c r="B113" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
-      <c r="B110" s="1" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="14"/>
+      <c r="B114" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
-      <c r="B111" s="1" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="14"/>
+      <c r="B115" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
-      <c r="B112" s="1" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="14"/>
+      <c r="B116" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
-      <c r="B113" s="1" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="14"/>
+      <c r="B117" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="11"/>
-      <c r="B114" s="2" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="14"/>
+      <c r="B118" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="11"/>
-      <c r="B116" s="1" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="14"/>
+      <c r="B120" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
-      <c r="B117" s="1" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="14"/>
+      <c r="B121" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
-      <c r="B118" s="1" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="14"/>
+      <c r="B122" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="11"/>
-      <c r="B119" s="1" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="14"/>
+      <c r="B123" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="11"/>
-      <c r="B120" s="1" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="14"/>
+      <c r="B124" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
-      <c r="B121" s="1" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="14"/>
+      <c r="B125" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="11"/>
-      <c r="B122" s="1" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="14"/>
+      <c r="B126" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="11"/>
-      <c r="B123" s="1" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="14"/>
+      <c r="B127" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
-      <c r="B124" s="1" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="14"/>
+      <c r="B128" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
-      <c r="B125" s="1" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="14"/>
+      <c r="B129" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="11"/>
-      <c r="B126" s="1" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="14"/>
+      <c r="B130" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="11"/>
-      <c r="B127" s="2" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="14"/>
+      <c r="B131" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
+    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="11"/>
-      <c r="B129" s="1" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="14"/>
+      <c r="B133" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="11"/>
-      <c r="B130" s="1" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="14"/>
+      <c r="B134" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="11"/>
-      <c r="B131" s="1" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="14"/>
+      <c r="B135" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="11"/>
-      <c r="B132" s="1" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="14"/>
+      <c r="B136" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="11"/>
-      <c r="B133" s="1" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="14"/>
+      <c r="B137" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="11"/>
-      <c r="B134" s="1" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="14"/>
+      <c r="B138" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="11"/>
-      <c r="B135" s="1" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="14"/>
+      <c r="B139" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="11"/>
-      <c r="B136" s="1" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="14"/>
+      <c r="B140" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="11"/>
-      <c r="B137" s="1" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="14"/>
+      <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
-      <c r="B138" s="1" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="14"/>
+      <c r="B142" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="11"/>
-      <c r="B139" s="1" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="14"/>
+      <c r="B143" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
-      <c r="B140" s="2" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="14"/>
+      <c r="B144" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="s">
+    <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="12"/>
-      <c r="B142" s="1" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="15"/>
+      <c r="B146" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
-      <c r="B143" s="1" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="15"/>
+      <c r="B147" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="12"/>
-      <c r="B144" s="1" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="15"/>
+      <c r="B148" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="12"/>
-      <c r="B145" s="1" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="15"/>
+      <c r="B149" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="12"/>
-      <c r="B146" s="1" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="15"/>
+      <c r="B150" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
-      <c r="B147" s="1" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="15"/>
+      <c r="B151" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
-      <c r="B148" s="1" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="15"/>
+      <c r="B152" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
-      <c r="B149" s="1" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="15"/>
+      <c r="B153" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="12"/>
-      <c r="B150" s="1" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="15"/>
+      <c r="B154" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="12"/>
-      <c r="B151" s="1" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="15"/>
+      <c r="B155" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="12"/>
-      <c r="B152" s="1" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="15"/>
+      <c r="B156" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="12"/>
-      <c r="B153" s="2" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="15"/>
+      <c r="B157" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="8"/>
-      <c r="B154" s="6" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="10"/>
+      <c r="B158" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="9"/>
-      <c r="B155" s="7" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="8"/>
+      <c r="B159" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="9"/>
+      <c r="B160" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="11" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="11"/>
-      <c r="B157" s="1" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="14"/>
+      <c r="B162" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="11"/>
-      <c r="B158" s="1" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="14"/>
+      <c r="B163" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="11"/>
-      <c r="B159" s="1" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="14"/>
+      <c r="B164" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="11"/>
-      <c r="B160" s="1" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="14"/>
+      <c r="B165" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="11"/>
-      <c r="B161" s="1" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="14"/>
+      <c r="B166" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="11"/>
-      <c r="B162" s="1" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="14"/>
+      <c r="B167" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="11"/>
-      <c r="B163" s="1" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="14"/>
+      <c r="B168" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="11"/>
-      <c r="B164" s="1" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="14"/>
+      <c r="B169" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="11"/>
-      <c r="B165" s="1" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="14"/>
+      <c r="B170" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="11"/>
-      <c r="B166" s="1" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="14"/>
+      <c r="B171" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="11"/>
-      <c r="B167" s="1" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="14"/>
+      <c r="B172" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="11"/>
-      <c r="B168" s="2" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="14"/>
+      <c r="B173" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="13" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="13"/>
-      <c r="B170" s="1" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="17"/>
+      <c r="B175" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="13"/>
-      <c r="B171" s="1" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="17"/>
+      <c r="B176" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="13"/>
-      <c r="B172" s="1" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="17"/>
+      <c r="B177" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="13"/>
-      <c r="B173" s="1" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="17"/>
+      <c r="B178" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="13"/>
-      <c r="B174" s="1" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="17"/>
+      <c r="B179" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="13"/>
-      <c r="B175" s="1" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="17"/>
+      <c r="B180" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="13"/>
-      <c r="B176" s="1" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="17"/>
+      <c r="B181" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="13"/>
-      <c r="B177" s="1" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="17"/>
+      <c r="B182" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="13"/>
-      <c r="B178" s="1" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="17"/>
+      <c r="B183" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="13"/>
-      <c r="B179" s="1" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="17"/>
+      <c r="B184" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="13"/>
-      <c r="B180" s="1" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="17"/>
+      <c r="B185" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="13"/>
-      <c r="B181" s="2" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="17"/>
+      <c r="B186" s="2" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A61:A73"/>
+    <mergeCell ref="A174:A186"/>
+    <mergeCell ref="A161:A173"/>
+    <mergeCell ref="A77:A89"/>
+    <mergeCell ref="A106:A118"/>
+    <mergeCell ref="A119:A131"/>
+    <mergeCell ref="A132:A144"/>
+    <mergeCell ref="A90:A102"/>
+    <mergeCell ref="A145:A157"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="A16:A28"/>
+    <mergeCell ref="A45:A57"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A59:A71"/>
-    <mergeCell ref="A169:A181"/>
-    <mergeCell ref="A156:A168"/>
-    <mergeCell ref="A74:A86"/>
-    <mergeCell ref="A102:A114"/>
-    <mergeCell ref="A115:A127"/>
-    <mergeCell ref="A128:A140"/>
-    <mergeCell ref="A87:A99"/>
-    <mergeCell ref="A141:A153"/>
-    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A15"/>
-    <mergeCell ref="A31:A43"/>
-    <mergeCell ref="A16:A28"/>
-    <mergeCell ref="A44:A56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
